--- a/data/trans_orig/P34B03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34B03-Edad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.167193893104809</v>
+        <v>1.16915120464002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.54959903778217</v>
+        <v>1.565049135204037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.385022755119508</v>
+        <v>1.377158291855784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4012513409160679</v>
+        <v>0.4016203312978883</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6201822525549097</v>
+        <v>0.6361673832943751</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5611956143770446</v>
+        <v>0.5690397612928005</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8424086667345495</v>
+        <v>0.8344893189502168</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.171399727063305</v>
+        <v>1.1579041848961</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.059381221284879</v>
+        <v>1.050155380588075</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.540211753208965</v>
+        <v>1.544612327207934</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.994648279194366</v>
+        <v>1.992610278112448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.008597717881742</v>
+        <v>2.020791380524106</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.653346485700591</v>
+        <v>0.6544580817215446</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9414903933921639</v>
+        <v>0.9328720740814034</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.015342007013388</v>
+        <v>1.018769061653754</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.064249623663428</v>
+        <v>1.061878675564385</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.450951176389478</v>
+        <v>1.438798195678588</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.475421845529456</v>
+        <v>1.458048555845509</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.6736866041314358</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.6056318239553843</v>
+        <v>0.6056318239553842</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.910971151872664</v>
@@ -769,7 +769,7 @@
         <v>1.043660563305863</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.9830472946587531</v>
+        <v>0.9830472946587532</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.143097057617952</v>
+        <v>1.133106217363794</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.250462505895291</v>
+        <v>1.24397743823567</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.15940195682191</v>
+        <v>1.150076952601963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3838432612326008</v>
+        <v>0.3772990320127583</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.563377515315974</v>
+        <v>0.5561548599879581</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4782180853107194</v>
+        <v>0.4757519448232176</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8235158722340066</v>
+        <v>0.8138447003081262</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9433858128693522</v>
+        <v>0.9410535633430075</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8486777929258666</v>
+        <v>0.8423681650541233</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.466583201253864</v>
+        <v>1.453070392840113</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.564383912118906</v>
+        <v>1.573182587247397</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.63982740699065</v>
+        <v>1.59957807258956</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6035665127186081</v>
+        <v>0.5931897014023374</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8036431843338457</v>
+        <v>0.8223929348099819</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.75250124419396</v>
+        <v>0.7554540365375519</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.018711653462979</v>
+        <v>1.017877026697085</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.158706159231286</v>
+        <v>1.155118135945352</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.123569262746419</v>
+        <v>1.126115797221372</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.9457881303934444</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9933179721048278</v>
+        <v>0.9933179721048275</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3803454976091257</v>
@@ -878,7 +878,7 @@
         <v>0.7985087915640739</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7401237593574401</v>
+        <v>0.7401237593574402</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6341029938262335</v>
+        <v>0.6140300891616347</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8116607635807024</v>
+        <v>0.8137019269652842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8530090837535839</v>
+        <v>0.8508038427502005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3048708759755865</v>
+        <v>0.2990367178722729</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5333889001892868</v>
+        <v>0.5370511276908989</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4061845476250946</v>
+        <v>0.4113066666805179</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4927195513653274</v>
+        <v>0.4860591819533864</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7129884799182272</v>
+        <v>0.7140301974988247</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.660316467569667</v>
+        <v>0.6596801401782433</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8897197019172463</v>
+        <v>0.8816118268794555</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.102194167944065</v>
+        <v>1.081071280001686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.153253835936842</v>
+        <v>1.13556861359386</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4827874368654404</v>
+        <v>0.4791581429886311</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7894924364677584</v>
+        <v>0.7870802967945633</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5739534736982449</v>
+        <v>0.5718248789704721</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6482268676713466</v>
+        <v>0.6394421340414336</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8932462077847083</v>
+        <v>0.8972865714880909</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8346631912452332</v>
+        <v>0.8299838565961296</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.6641533830644354</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8050697778026472</v>
+        <v>0.8050697778026473</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2375912792036061</v>
@@ -987,7 +987,7 @@
         <v>0.5663293858597532</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.6161007334523869</v>
+        <v>0.616100733452387</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4635838229879405</v>
+        <v>0.4495903401675202</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.543122168595345</v>
+        <v>0.5498261772667384</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6831197612013824</v>
+        <v>0.6926470381688529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1659594870761176</v>
+        <v>0.1723465998007018</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3760276730784555</v>
+        <v>0.369529223042212</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3698627785024387</v>
+        <v>0.3697516232665511</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3346289560428106</v>
+        <v>0.3304953352182715</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4918800144176264</v>
+        <v>0.4904926436239774</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5504203996226901</v>
+        <v>0.546472243073255</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7282974241068098</v>
+        <v>0.7322840023710878</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7847416631943163</v>
+        <v>0.7966584561454483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9414866747274088</v>
+        <v>0.9543035912034412</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3303239327169365</v>
+        <v>0.3216660353390843</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6014667400575304</v>
+        <v>0.5823317402037718</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5201581859311856</v>
+        <v>0.5129417628357243</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4953772422428444</v>
+        <v>0.4880972338461799</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6571211418487211</v>
+        <v>0.6560563117981423</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6859996058992266</v>
+        <v>0.6950175374911987</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.2561111330357793</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.3504667069737024</v>
+        <v>0.3504667069737025</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.2472905000410258</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1780723117986532</v>
+        <v>0.1748074388043323</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2810001691780667</v>
+        <v>0.2874903787827417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3524508736906528</v>
+        <v>0.3455105903472129</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1492649647564805</v>
+        <v>0.1422561352989804</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1769394823704773</v>
+        <v>0.1756589430447568</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2865919963171403</v>
+        <v>0.2809431695077289</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1857307338151129</v>
+        <v>0.1830761785019014</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2552287458440762</v>
+        <v>0.2538022058895197</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3341479905682148</v>
+        <v>0.3372570454586106</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3881586351263422</v>
+        <v>0.3957591560912855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5397222687751849</v>
+        <v>0.528870710269538</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5472226315997682</v>
+        <v>0.5571203687545648</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3397665863261811</v>
+        <v>0.3373263342662879</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.364827725942818</v>
+        <v>0.3654924252549721</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4334910810882129</v>
+        <v>0.4251845501089921</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.324545691325769</v>
+        <v>0.3256827244367931</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4045218425383318</v>
+        <v>0.4017587300253258</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4598615798101049</v>
+        <v>0.4635310372842671</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>0.2776152120003632</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.2915975095967852</v>
+        <v>0.2915975095967853</v>
       </c>
     </row>
     <row r="20">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.110218163701741</v>
+        <v>0.1111663252956918</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.177515522082806</v>
+        <v>0.1769328245650417</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.25668978515518</v>
+        <v>0.266272127364819</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08906410781172484</v>
+        <v>0.08675497433925153</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1775337264722556</v>
+        <v>0.1757284129973081</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1843882443877464</v>
+        <v>0.1839031654866328</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1183459434431652</v>
+        <v>0.1167385198290174</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2009731694201746</v>
+        <v>0.2009678119732075</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2371633248159531</v>
+        <v>0.2397249672663915</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4362691624581257</v>
+        <v>0.4148172657781805</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4487179489439935</v>
+        <v>0.4471268416476641</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4615533694966972</v>
+        <v>0.4634141362042945</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3004135033773113</v>
+        <v>0.294661666754448</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4215944880932183</v>
+        <v>0.4015118835560417</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.31481979833521</v>
+        <v>0.3143783557989954</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3067450191083096</v>
+        <v>0.2982763770760597</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3855729255730267</v>
+        <v>0.3868470047963495</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3534909446348694</v>
+        <v>0.3530545679360969</v>
       </c>
     </row>
     <row r="22">
@@ -1305,7 +1305,7 @@
         <v>0.06531754048884504</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.08934235418040182</v>
+        <v>0.08934235418040183</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.107135452645991</v>
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06328142016063514</v>
+        <v>0.05510904975183815</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05891648407353434</v>
+        <v>0.0581924386112784</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1352110692358145</v>
+        <v>0.1257772251275399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03014000763966876</v>
+        <v>0.03145540500082337</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02330994637090468</v>
+        <v>0.02528381619094323</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04466451285031528</v>
+        <v>0.04525080789872218</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05816313092719071</v>
+        <v>0.05457330506935331</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04933965916222657</v>
+        <v>0.0496386819213825</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09313120317718108</v>
+        <v>0.09498689339000015</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4319792605000851</v>
+        <v>0.4405718429860536</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2523855308672209</v>
+        <v>0.2538810427468135</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3290597024731522</v>
+        <v>0.3269104553455315</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1415116811488864</v>
+        <v>0.1383158420038313</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1579847543902615</v>
+        <v>0.1523510042780774</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1905387342402164</v>
+        <v>0.1831889486931816</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2135154399861932</v>
+        <v>0.2049937831999043</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1467943921133959</v>
+        <v>0.1456669525512339</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2015849127495504</v>
+        <v>0.2104278219590241</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>0.8679093332587087</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8512399994228085</v>
+        <v>0.8512399994228084</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.3150886808138229</v>
@@ -1414,7 +1414,7 @@
         <v>0.4738082706421076</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.4188490539799597</v>
+        <v>0.4188490539799598</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.5313042352007041</v>
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6963301724009658</v>
+        <v>0.7012259944174507</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8039538441579487</v>
+        <v>0.8098955150585589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7869935706724804</v>
+        <v>0.789956396529273</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2798002905046675</v>
+        <v>0.2802985003481666</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4283249021816556</v>
+        <v>0.4297171832338383</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.382362070388309</v>
+        <v>0.381640539724425</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4960508474084514</v>
+        <v>0.4961632837196648</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6318162865633853</v>
+        <v>0.6325026131087881</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5880909607579694</v>
+        <v>0.5921768597328166</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8122939984684105</v>
+        <v>0.8195510075503359</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9301232626607784</v>
+        <v>0.931064898845311</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9240702028758306</v>
+        <v>0.9270381479247086</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3538551959038657</v>
+        <v>0.3489755510147259</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5164253028536842</v>
+        <v>0.5159603748509736</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4595516133241579</v>
+        <v>0.4598818092028901</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5670285863433576</v>
+        <v>0.5678393860789039</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7107739991901734</v>
+        <v>0.7030934561167846</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6679262425084045</v>
+        <v>0.6690645550107632</v>
       </c>
     </row>
     <row r="28">
